--- a/results/scale/name_index.xlsx
+++ b/results/scale/name_index.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,559 +694,559 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>刘昊殷</t>
+          <t>张屿嘉</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>55758322</t>
+          <t>56696990</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>舒琪</t>
+          <t>于胡倩</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>55760307</t>
+          <t>56702182</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>蔡安新</t>
+          <t>程新宙</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>55763117</t>
+          <t>56708148</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>王子菲</t>
+          <t>王晨祎</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>55766121</t>
+          <t>56710691</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E16" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>刘洋</t>
+          <t>于金龙</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>55768880</t>
+          <t>56783666</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>管笑啸</t>
+          <t>左家伟</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>55774247</t>
+          <t>56787409</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>贾凡</t>
+          <t>王皓璋</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>55776021</t>
+          <t>56789859</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>肖舜睿</t>
+          <t>刘昊殷</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>55777851</t>
+          <t>55758322</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>林雨仙</t>
+          <t>舒琪</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>55779767</t>
+          <t>55760307</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>符慧跃</t>
+          <t>蔡安新</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>55781652</t>
+          <t>55763117</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>徐正圆</t>
+          <t>王子菲</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>55850187</t>
+          <t>55766121</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>陈圣泽</t>
+          <t>刘洋</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>55852656</t>
+          <t>55768880</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>黄泽铭</t>
+          <t>管笑啸</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>55854618</t>
+          <t>55774247</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
         <v>9</v>
-      </c>
-      <c r="E25" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>石玥</t>
+          <t>贾凡</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>55860282</t>
+          <t>55776021</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>张楚晨</t>
+          <t>肖舜睿</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>55862633</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+          <t>55777851</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>7</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>冯雨晨</t>
+          <t>林雨仙</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>55864604</t>
+          <t>55779767</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>魏子航</t>
+          <t>符慧跃</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>55866572</t>
+          <t>55781652</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E29" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>瞿蓉蓉</t>
+          <t>徐正圆</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>55868471</t>
+          <t>55850187</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>伍凯鹏</t>
+          <t>陈圣泽</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>55916641</t>
+          <t>55852656</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E31" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>邹阳</t>
+          <t>黄泽铭</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>55918750</t>
+          <t>55854618</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>郑栋栋</t>
+          <t>石玥</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>55928394</t>
+          <t>55860282</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>高越</t>
+          <t>张楚晨</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>55931580</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>5</v>
-      </c>
-      <c r="D34" t="n">
-        <v>8</v>
-      </c>
-      <c r="E34" t="n">
-        <v>13</v>
-      </c>
+          <t>55862633</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>刘家源</t>
+          <t>冯雨晨</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>55936390</t>
+          <t>55864604</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>胡禄美</t>
+          <t>魏子航</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>55938914</t>
+          <t>55866572</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>陈奕诺</t>
+          <t>瞿蓉蓉</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>55949248</t>
+          <t>55868471</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>凌佩儿</t>
+          <t>伍凯鹏</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>55951038</t>
+          <t>55916641</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>陈佳铭</t>
+          <t>邹阳</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>56015648</t>
+          <t>55918750</t>
         </is>
       </c>
       <c r="C39" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" t="n">
         <v>2</v>
-      </c>
-      <c r="D39" t="n">
-        <v>3</v>
       </c>
       <c r="E39" t="n">
         <v>5</v>
@@ -1255,105 +1255,252 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>陈浩然</t>
+          <t>郑栋栋</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>56020297</t>
+          <t>55928394</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>刘李浚</t>
+          <t>高越</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>56024896</t>
+          <t>55931580</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E41" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>谭天慧</t>
+          <t>刘家源</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>56027303</t>
+          <t>55936390</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>江凯翔</t>
+          <t>胡禄美</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>56035722</t>
+          <t>55938914</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>刘栩嘉</t>
+          <t>陈奕诺</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>56040135</t>
+          <t>55949248</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>4</v>
       </c>
       <c r="E44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>凌佩儿</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>55951038</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>7</v>
+      </c>
+      <c r="D45" t="n">
+        <v>6</v>
+      </c>
+      <c r="E45" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>陈佳铭</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>56015648</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>陈浩然</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>56020297</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="n">
+        <v>6</v>
+      </c>
+      <c r="E47" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>刘李浚</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>56024896</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>谭天慧</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>56027303</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>12</v>
+      </c>
+      <c r="D49" t="n">
+        <v>8</v>
+      </c>
+      <c r="E49" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>江凯翔</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>56035722</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>15</v>
+      </c>
+      <c r="D50" t="n">
+        <v>9</v>
+      </c>
+      <c r="E50" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>刘栩嘉</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>56040135</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4</v>
+      </c>
+      <c r="E51" t="n">
         <v>6</v>
       </c>
     </row>
